--- a/data/trans_dic/P16B13-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B13-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,17 +686,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>60,74; 100,0</t>
+          <t>55,78; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,13; 90,26</t>
+          <t>36,29; 90,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,1; 100,0</t>
+          <t>66,19; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,27 +706,27 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>71,12; 100,0</t>
+          <t>71,47; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,22; 100,0</t>
+          <t>60,13; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>67,77; 100,0</t>
+          <t>67,17; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>60,74; 92,6</t>
+          <t>63,64; 94,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>70,48; 97,07</t>
+          <t>72,39; 96,96</t>
         </is>
       </c>
     </row>
@@ -810,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,32; 100,0</t>
+          <t>56,43; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,12 +821,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,32; 100,0</t>
+          <t>67,91; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>70,74; 100,0</t>
+          <t>69,71; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,7 +836,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>82,45; 100,0</t>
+          <t>82,0; 100,0</t>
         </is>
       </c>
     </row>
@@ -910,12 +911,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,46; 100,0</t>
+          <t>76,84; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,76; 100,0</t>
+          <t>46,46; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -925,12 +926,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>65,5; 100,0</t>
+          <t>66,12; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,69; 100,0</t>
+          <t>56,22; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -940,12 +941,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,54; 100,0</t>
+          <t>83,41; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>59,72; 96,21</t>
+          <t>59,98; 96,14</t>
         </is>
       </c>
     </row>
@@ -1015,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,02; 100,0</t>
+          <t>81,54; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,77; 98,39</t>
+          <t>85,56; 98,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1036,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>85,74; 100,0</t>
+          <t>84,43; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1051,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>87,96; 98,07</t>
+          <t>88,84; 98,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1130,7 +1131,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>83,42; 100,0</t>
+          <t>83,89; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,7 +1141,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76,53; 100,0</t>
+          <t>70,03; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,22 +1151,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>75,42; 100,0</t>
+          <t>76,63; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>79,21; 100,0</t>
+          <t>82,74; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>94,43; 100,0</t>
+          <t>93,38; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>89,74; 100,0</t>
+          <t>89,71; 100,0</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1251,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>86,59; 98,41</t>
+          <t>86,15; 98,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1265,7 +1266,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>85,35; 98,46</t>
+          <t>86,87; 98,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>88,83; 98,95</t>
+          <t>87,8; 98,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>85,15; 96,06</t>
+          <t>85,78; 96,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>85,88; 98,1</t>
+          <t>86,57; 98,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>90,16; 98,34</t>
+          <t>90,23; 98,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,9; 99,53</t>
+          <t>95,4; 99,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,26; 99,32</t>
+          <t>92,91; 99,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>91,82; 97,86</t>
+          <t>91,94; 97,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>92,7; 97,69</t>
+          <t>92,94; 97,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>91,74; 98,2</t>
+          <t>91,85; 98,1</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para alteraciones digestivas fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13486</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13378</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15334</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5728</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>17297</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10123</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19215</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>30675</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>25456</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8374; 15012</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6972; 17345</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11547; 17446</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4396; 5728</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13061; 18274</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6619; 11008</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13931; 20741</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23855; 35339</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20598; 27589</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8355</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13375</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12465</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9411</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15681</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14923</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17766</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>29056</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27388</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6621; 8355</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11277; 13375</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10510; 12465</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6351; 11254</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13566; 15681</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10795; 15896</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>13668; 19609</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>26844; 29056</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23256; 28361</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11993</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20376</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11859</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7937</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11001</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9373</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19930</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>31377</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21232</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10253; 11993</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16343; 21270</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7139; 15364</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6290; 7937</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7872; 11905</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5789; 10297</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18127; 19930</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>27670; 33175</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15391; 24671</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>34942</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>57552</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>24076</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>21002</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>32933</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>29097</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>55944</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>90484</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>53174</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>30135; 36958</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>52454; 60383</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>22243; 24076</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>19265; 21002</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>28717; 34011</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>27117; 29097</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>51345; 57960</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>84682; 93550</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>51218; 53174</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>11059</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>19526</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>25617</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>16511</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>51559</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>24007</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>27570</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>71085</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>49624</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9324; 11059</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17001; 20266</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>23741; 25617</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12247; 17487</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>49505; 51559</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>19312; 25201</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>23619; 28546</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>67068; 71825</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>45590; 50818</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4831</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1095</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>53207</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>57673</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>47458</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>55307</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>62504</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>48553</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>905; 2100</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3080; 4831</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>250; 1095</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>48298; 55171</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>55703; 57673</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>45299; 47458</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>50526; 57273</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>60510; 62504</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>46395; 48553</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>81936</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>129037</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>90446</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>113797</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>186143</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>134981</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>195734</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>315181</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>225426</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>75049; 84577</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>120311; 135496</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>83161; 94275</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>107798; 117533</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>180410; 188194</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>129107; 138000</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>188423; 200356</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>306103; 321819</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>215874; 230559</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16B13-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B13-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
